--- a/data/trans_orig/P6705-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32371214-7711-4C82-A988-A78CF9AFC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{047313D9-E998-4414-A11A-18583E6D0490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DDFF375-F206-4385-B94E-1358B9D25004}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC7F025D-DEEF-4183-BA50-427996AF8521}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="752">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -76,2197 +76,2224 @@
     <t>24,29%</t>
   </si>
   <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>10,74%</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5795F66B-D643-4131-AC22-549552BB68BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC41D52-05B6-4817-938F-18709D692B63}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3146,7 +3173,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3188,13 @@
         <v>35686</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -3176,13 +3203,13 @@
         <v>33104</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -3191,13 +3218,13 @@
         <v>68790</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3239,13 @@
         <v>55513</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -3227,13 +3254,13 @@
         <v>33054</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -3242,13 +3269,13 @@
         <v>88566</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3290,13 @@
         <v>43065</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3278,13 +3305,13 @@
         <v>21873</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3293,13 +3320,13 @@
         <v>64938</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3341,13 @@
         <v>26542</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3329,13 +3356,13 @@
         <v>19200</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3344,13 +3371,13 @@
         <v>45742</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3433,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3418,13 +3445,13 @@
         <v>80225</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3433,13 +3460,13 @@
         <v>64806</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -3448,13 +3475,13 @@
         <v>145031</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3496,13 @@
         <v>57427</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3484,13 +3511,13 @@
         <v>46088</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -3499,13 +3526,13 @@
         <v>103515</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3547,13 @@
         <v>110805</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -3535,13 +3562,13 @@
         <v>71961</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>165</v>
@@ -3550,13 +3577,13 @@
         <v>182766</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3598,13 @@
         <v>87232</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -3586,13 +3613,13 @@
         <v>41100</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3601,13 +3628,13 @@
         <v>128332</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3649,13 @@
         <v>72107</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3637,13 +3664,13 @@
         <v>47606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3652,13 +3679,13 @@
         <v>119713</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,7 +3741,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3726,13 +3753,13 @@
         <v>54326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3741,13 +3768,13 @@
         <v>42497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3756,13 +3783,13 @@
         <v>96823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3804,13 @@
         <v>44679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3792,13 +3819,13 @@
         <v>27515</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3807,13 +3834,13 @@
         <v>72194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3855,13 @@
         <v>86388</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -3843,13 +3870,13 @@
         <v>52346</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -3858,13 +3885,13 @@
         <v>138734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,10 +3909,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3894,13 +3921,13 @@
         <v>39292</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3909,13 +3936,13 @@
         <v>98113</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3957,13 @@
         <v>76329</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3945,13 +3972,13 @@
         <v>52691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>116</v>
@@ -3960,13 +3987,13 @@
         <v>129019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4049,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4061,13 @@
         <v>74193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4049,13 +4076,13 @@
         <v>68311</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -4064,13 +4091,13 @@
         <v>142504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4112,13 @@
         <v>67457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -4100,13 +4127,13 @@
         <v>43855</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -4115,13 +4142,13 @@
         <v>111312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4163,13 @@
         <v>140636</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -4151,13 +4178,13 @@
         <v>78741</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -4166,13 +4193,13 @@
         <v>219378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4214,13 @@
         <v>79944</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -4202,13 +4229,13 @@
         <v>61189</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>135</v>
@@ -4217,13 +4244,13 @@
         <v>141133</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4265,13 @@
         <v>55527</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
@@ -4253,13 +4280,13 @@
         <v>48421</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -4268,13 +4295,13 @@
         <v>103948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4369,13 @@
         <v>276495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>192</v>
@@ -4357,13 +4384,13 @@
         <v>209936</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>451</v>
@@ -4372,13 +4399,13 @@
         <v>486430</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4420,13 @@
         <v>216585</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>147</v>
@@ -4408,13 +4435,13 @@
         <v>155185</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>355</v>
@@ -4423,13 +4450,13 @@
         <v>371769</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4471,13 @@
         <v>409949</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>224</v>
@@ -4459,13 +4486,13 @@
         <v>241701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>607</v>
@@ -4474,13 +4501,13 @@
         <v>651649</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4522,13 @@
         <v>276768</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>154</v>
@@ -4510,13 +4537,13 @@
         <v>169742</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>410</v>
@@ -4525,13 +4552,13 @@
         <v>446510</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4573,13 @@
         <v>233181</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="H38" s="7">
         <v>157</v>
@@ -4561,13 +4588,13 @@
         <v>170135</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>377</v>
@@ -4576,13 +4603,13 @@
         <v>403315</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4665,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4659,7 +4686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD26FD-F3A9-451C-8851-E2F6B3B86BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612EA0FA-19E7-42A2-B9A8-5CC4836E3DEF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4676,7 +4703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4783,13 +4810,13 @@
         <v>9213</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4798,13 +4825,13 @@
         <v>6559</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4813,13 +4840,13 @@
         <v>15773</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4861,13 @@
         <v>6181</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4849,13 +4876,13 @@
         <v>3378</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4864,13 +4891,13 @@
         <v>9559</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4912,13 @@
         <v>13185</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -4900,13 +4927,13 @@
         <v>8922</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -4915,13 +4942,13 @@
         <v>22107</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4963,13 @@
         <v>10554</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4951,13 +4978,13 @@
         <v>8428</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4966,13 +4993,13 @@
         <v>18982</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5014,13 @@
         <v>4888</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5002,13 +5029,13 @@
         <v>2604</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5017,13 +5044,13 @@
         <v>7492</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5118,7 @@
         <v>45464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>321</v>
@@ -5178,7 +5205,7 @@
         <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5220,13 @@
         <v>53883</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -5208,13 +5235,13 @@
         <v>41209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -5223,13 +5250,13 @@
         <v>95093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>190</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5271,13 @@
         <v>36742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5259,13 +5286,13 @@
         <v>22103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5274,13 +5301,13 @@
         <v>58845</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5322,13 @@
         <v>22596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5310,13 +5337,13 @@
         <v>12380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5325,13 +5352,13 @@
         <v>34977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5414,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5399,13 +5426,13 @@
         <v>118870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5414,13 +5441,13 @@
         <v>68294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -5429,13 +5456,13 @@
         <v>187163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5477,13 @@
         <v>83470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -5465,13 +5492,13 @@
         <v>59986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5480,13 +5507,13 @@
         <v>143456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5528,13 @@
         <v>104666</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -5516,13 +5543,13 @@
         <v>62383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -5534,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5579,13 @@
         <v>64311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5567,13 +5594,13 @@
         <v>40210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -5582,13 +5609,13 @@
         <v>104521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5630,13 @@
         <v>42724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5618,13 +5645,13 @@
         <v>42899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -5633,13 +5660,13 @@
         <v>85623</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,7 +5722,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5707,13 +5734,13 @@
         <v>73089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5722,13 +5749,13 @@
         <v>47682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -5737,13 +5764,13 @@
         <v>120771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5785,13 @@
         <v>69911</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -5773,13 +5800,13 @@
         <v>56381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>118</v>
@@ -5788,13 +5815,13 @@
         <v>126292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5836,13 @@
         <v>128188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>89</v>
@@ -5824,13 +5851,13 @@
         <v>91819</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -5839,13 +5866,13 @@
         <v>220007</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>13</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5887,13 @@
         <v>62810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5875,13 +5902,13 @@
         <v>44901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -5890,13 +5917,13 @@
         <v>107711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5938,13 @@
         <v>29821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5926,13 +5953,13 @@
         <v>29776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -5941,13 +5968,13 @@
         <v>59597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6030,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6015,13 +6042,13 @@
         <v>112583</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -6030,13 +6057,13 @@
         <v>77949</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -6045,13 +6072,13 @@
         <v>190532</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6093,13 @@
         <v>71366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -6081,13 +6108,13 @@
         <v>55933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>121</v>
@@ -6096,13 +6123,13 @@
         <v>127300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6144,13 @@
         <v>105786</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -6132,13 +6159,13 @@
         <v>78915</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>457</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -6147,13 +6174,13 @@
         <v>184701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6195,13 @@
         <v>65489</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -6183,13 +6210,13 @@
         <v>66868</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -6198,13 +6225,13 @@
         <v>132357</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6246,13 @@
         <v>45946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -6234,13 +6261,13 @@
         <v>45809</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>306</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -6249,13 +6276,13 @@
         <v>91755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>479</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6350,13 @@
         <v>359219</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>341</v>
+        <v>482</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H34" s="7">
         <v>229</v>
@@ -6338,13 +6365,13 @@
         <v>231944</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>479</v>
+        <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M34" s="7">
         <v>568</v>
@@ -6353,13 +6380,13 @@
         <v>591164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6401,13 @@
         <v>271511</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>486</v>
+        <v>104</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H35" s="7">
         <v>204</v>
@@ -6389,13 +6416,13 @@
         <v>206003</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>490</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
         <v>455</v>
@@ -6404,13 +6431,13 @@
         <v>477514</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6452,13 @@
         <v>405708</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>274</v>
@@ -6440,13 +6467,13 @@
         <v>283248</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M36" s="7">
         <v>649</v>
@@ -6455,13 +6482,13 @@
         <v>688957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>294</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6503,13 @@
         <v>239908</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>180</v>
@@ -6491,13 +6518,13 @@
         <v>182509</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>488</v>
+        <v>63</v>
       </c>
       <c r="M37" s="7">
         <v>408</v>
@@ -6506,13 +6533,13 @@
         <v>422417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6554,13 @@
         <v>145975</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H38" s="7">
         <v>126</v>
@@ -6542,13 +6569,13 @@
         <v>133468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>511</v>
+        <v>116</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M38" s="7">
         <v>256</v>
@@ -6557,13 +6584,13 @@
         <v>279443</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,7 +6646,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6640,7 +6667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F0CC1-0062-40C9-B769-DD69F36A0E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9464BF1B-145A-47F0-BE8F-AE16A004C843}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6657,7 +6684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6764,13 +6791,13 @@
         <v>6725</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>517</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6782,10 +6809,10 @@
         <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6794,13 +6821,13 @@
         <v>8644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6842,13 @@
         <v>1121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>529</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6830,13 +6857,13 @@
         <v>428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6845,13 +6872,13 @@
         <v>1550</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6893,13 @@
         <v>3772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6881,13 +6908,13 @@
         <v>3023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6896,13 +6923,13 @@
         <v>6794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,10 +6947,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6932,13 +6959,13 @@
         <v>861</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>542</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6947,13 +6974,13 @@
         <v>861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6995,13 @@
         <v>3767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>552</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6983,13 +7010,13 @@
         <v>2172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>549</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6998,13 +7025,13 @@
         <v>5939</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7099,13 @@
         <v>15514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7087,13 +7114,13 @@
         <v>18171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>563</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -7102,13 +7129,13 @@
         <v>33686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7150,13 @@
         <v>15967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7138,13 +7165,13 @@
         <v>7243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -7153,13 +7180,13 @@
         <v>23210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>574</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7201,13 @@
         <v>23404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -7189,13 +7216,13 @@
         <v>21549</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>579</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>572</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -7204,13 +7231,13 @@
         <v>44954</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>582</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7252,13 @@
         <v>5860</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7240,13 +7267,13 @@
         <v>14259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>587</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>579</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7255,13 +7282,13 @@
         <v>20120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7303,13 @@
         <v>13800</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7291,13 +7318,13 @@
         <v>4125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7306,13 +7333,13 @@
         <v>17926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,7 +7395,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7380,13 +7407,13 @@
         <v>87525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7395,13 +7422,13 @@
         <v>23081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>492</v>
+        <v>602</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -7410,13 +7437,13 @@
         <v>110606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>595</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>596</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7458,13 @@
         <v>39952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -7446,13 +7473,13 @@
         <v>32220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>610</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7461,13 +7488,13 @@
         <v>72172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>612</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,13 +7509,13 @@
         <v>43361</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>606</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -7497,13 +7524,13 @@
         <v>39127</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>178</v>
+        <v>616</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -7512,13 +7539,13 @@
         <v>82488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>356</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7560,13 @@
         <v>31364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>150</v>
+        <v>621</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -7548,13 +7575,13 @@
         <v>21809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>624</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7563,13 +7590,13 @@
         <v>53172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7611,13 @@
         <v>10591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -7599,13 +7626,13 @@
         <v>12882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -7614,13 +7641,13 @@
         <v>23473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,7 +7703,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7688,13 +7715,13 @@
         <v>29659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>628</v>
+        <v>535</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -7703,13 +7730,13 @@
         <v>35304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -7718,13 +7745,13 @@
         <v>64963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7766,13 @@
         <v>18332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>647</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -7754,13 +7781,13 @@
         <v>10875</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>639</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -7769,13 +7796,13 @@
         <v>29206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7817,13 @@
         <v>17585</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>589</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -7805,13 +7832,13 @@
         <v>26503</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>656</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>645</v>
+        <v>494</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -7820,13 +7847,13 @@
         <v>44088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>658</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>648</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7868,13 @@
         <v>10783</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7856,13 +7883,13 @@
         <v>6160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7871,13 +7898,13 @@
         <v>16943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7919,13 @@
         <v>4747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -7907,13 +7934,13 @@
         <v>10654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>659</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>661</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7922,13 +7949,13 @@
         <v>15401</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,7 +8011,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7996,13 +8023,13 @@
         <v>45124</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -8011,13 +8038,13 @@
         <v>39276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>558</v>
+        <v>678</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -8026,13 +8053,13 @@
         <v>84399</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8074,13 @@
         <v>12643</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>686</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8062,13 +8089,13 @@
         <v>11528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>675</v>
+        <v>568</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -8077,13 +8104,13 @@
         <v>24171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>678</v>
+        <v>625</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8125,13 @@
         <v>34917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -8113,13 +8140,13 @@
         <v>30098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>694</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -8128,13 +8155,13 @@
         <v>65015</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8176,13 @@
         <v>12585</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>457</v>
+        <v>659</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -8164,13 +8191,13 @@
         <v>10139</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -8179,13 +8206,13 @@
         <v>22724</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>695</v>
+        <v>528</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>505</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8227,13 @@
         <v>7817</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>698</v>
+        <v>94</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8215,13 +8242,13 @@
         <v>4567</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -8230,13 +8257,13 @@
         <v>12384</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8331,13 @@
         <v>184547</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="H34" s="7">
         <v>146</v>
@@ -8319,13 +8346,13 @@
         <v>117751</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>708</v>
+        <v>369</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>709</v>
+        <v>134</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="M34" s="7">
         <v>264</v>
@@ -8334,13 +8361,13 @@
         <v>302298</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8382,13 @@
         <v>88015</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>453</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -8370,13 +8397,13 @@
         <v>62294</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -8385,13 +8412,13 @@
         <v>150308</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>719</v>
+        <v>83</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,13 +8433,13 @@
         <v>123039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>730</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H36" s="7">
         <v>163</v>
@@ -8421,13 +8448,13 @@
         <v>120300</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>724</v>
+        <v>421</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="M36" s="7">
         <v>281</v>
@@ -8436,13 +8463,13 @@
         <v>243340</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>291</v>
+        <v>734</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>479</v>
+        <v>735</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>496</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8457,13 +8484,13 @@
         <v>60591</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -8472,13 +8499,13 @@
         <v>53228</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>731</v>
+        <v>388</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="M37" s="7">
         <v>127</v>
@@ -8487,13 +8514,13 @@
         <v>113819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>701</v>
+        <v>317</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8508,13 +8535,13 @@
         <v>40722</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>736</v>
+        <v>427</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -8523,13 +8550,13 @@
         <v>34401</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="M38" s="7">
         <v>72</v>
@@ -8538,13 +8565,13 @@
         <v>75123</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,7 +8627,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6705-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{047313D9-E998-4414-A11A-18583E6D0490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C814F4C1-6134-4FAB-A713-B5CA8FDA4862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC7F025D-DEEF-4183-BA50-427996AF8521}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E93FA88F-F0B9-4119-AB9E-A8FAA738E9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="746">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -76,2206 +76,2188 @@
     <t>24,29%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>25,65%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
   </si>
   <si>
     <t>8,87%</t>
@@ -2705,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC41D52-05B6-4817-938F-18709D692B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AC80C5-80EB-4A7A-9978-ECF255361D54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3173,7 +3155,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3170,13 @@
         <v>35686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -3203,13 +3185,13 @@
         <v>33104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -3218,13 +3200,13 @@
         <v>68790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3221,13 @@
         <v>55513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -3254,13 +3236,13 @@
         <v>33054</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -3269,13 +3251,13 @@
         <v>88566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3272,13 @@
         <v>43065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3305,13 +3287,13 @@
         <v>21873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3320,13 +3302,13 @@
         <v>64938</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3323,13 @@
         <v>26542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3356,13 +3338,13 @@
         <v>19200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3371,13 +3353,13 @@
         <v>45742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3415,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3445,13 +3427,13 @@
         <v>80225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3460,13 +3442,13 @@
         <v>64806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -3475,13 +3457,13 @@
         <v>145031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3478,13 @@
         <v>57427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3511,13 +3493,13 @@
         <v>46088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -3526,13 +3508,13 @@
         <v>103515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3529,13 @@
         <v>110805</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -3562,13 +3544,13 @@
         <v>71961</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>165</v>
@@ -3577,13 +3559,13 @@
         <v>182766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3580,13 @@
         <v>87232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -3613,13 +3595,13 @@
         <v>41100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3628,10 +3610,10 @@
         <v>128332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>140</v>
@@ -3664,13 +3646,13 @@
         <v>47606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3679,13 +3661,13 @@
         <v>119713</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3723,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3753,13 +3735,13 @@
         <v>54326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3768,13 +3750,13 @@
         <v>42497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3783,13 +3765,13 @@
         <v>96823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3786,13 @@
         <v>44679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3819,13 +3801,13 @@
         <v>27515</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3834,13 +3816,13 @@
         <v>72194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,10 +3837,10 @@
         <v>86388</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>169</v>
@@ -3891,7 +3873,7 @@
         <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,10 +3891,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3921,13 +3903,13 @@
         <v>39292</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3936,13 +3918,13 @@
         <v>98113</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3939,13 @@
         <v>76329</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3972,13 +3954,13 @@
         <v>52691</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>116</v>
@@ -3987,13 +3969,13 @@
         <v>129019</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4031,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4061,13 +4043,13 @@
         <v>74193</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4076,13 +4058,13 @@
         <v>68311</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -4091,13 +4073,13 @@
         <v>142504</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4094,13 @@
         <v>67457</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -4127,13 +4109,13 @@
         <v>43855</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -4148,7 +4130,7 @@
         <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4145,13 @@
         <v>140636</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -4178,13 +4160,13 @@
         <v>78741</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -4193,13 +4175,13 @@
         <v>219378</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,10 +4196,10 @@
         <v>79944</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>218</v>
@@ -4271,7 +4253,7 @@
         <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
@@ -4280,13 +4262,13 @@
         <v>48421</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -4295,13 +4277,13 @@
         <v>103948</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4351,13 @@
         <v>276495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>192</v>
@@ -4384,13 +4366,13 @@
         <v>209936</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>451</v>
@@ -4399,13 +4381,13 @@
         <v>486430</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4402,13 @@
         <v>216585</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>147</v>
@@ -4435,13 +4417,13 @@
         <v>155185</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>355</v>
@@ -4450,13 +4432,13 @@
         <v>371769</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4453,13 @@
         <v>409949</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>224</v>
@@ -4486,13 +4468,13 @@
         <v>241701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>607</v>
@@ -4501,13 +4483,13 @@
         <v>651649</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4504,13 @@
         <v>276768</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>154</v>
@@ -4537,13 +4519,13 @@
         <v>169742</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="M37" s="7">
         <v>410</v>
@@ -4552,13 +4534,13 @@
         <v>446510</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4555,13 @@
         <v>233181</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>157</v>
@@ -4588,13 +4570,13 @@
         <v>170135</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>377</v>
@@ -4603,13 +4585,13 @@
         <v>403315</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4647,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4686,7 +4668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612EA0FA-19E7-42A2-B9A8-5CC4836E3DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DED8C-85BB-4E14-99B1-1F800713C44D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,7 +4685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4810,13 +4792,13 @@
         <v>9213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4825,13 +4807,13 @@
         <v>6559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4840,13 +4822,13 @@
         <v>15773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4843,13 @@
         <v>6181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4876,13 +4858,13 @@
         <v>3378</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4891,13 +4873,13 @@
         <v>9559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4894,13 @@
         <v>13185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -4927,13 +4909,13 @@
         <v>8922</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -4942,13 +4924,13 @@
         <v>22107</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,10 +4945,10 @@
         <v>10554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>304</v>
@@ -4996,10 +4978,10 @@
         <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +4996,13 @@
         <v>4888</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5029,13 +5011,13 @@
         <v>2604</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5044,13 +5026,13 @@
         <v>7492</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5100,13 @@
         <v>45464</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5133,13 +5115,13 @@
         <v>31460</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5148,13 +5130,13 @@
         <v>76925</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5151,13 @@
         <v>40583</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -5184,13 +5166,13 @@
         <v>30325</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5199,13 +5181,13 @@
         <v>70907</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5202,13 @@
         <v>53883</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -5235,13 +5217,13 @@
         <v>41209</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -5250,13 +5232,13 @@
         <v>95093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5253,13 @@
         <v>36742</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5286,13 +5268,13 @@
         <v>22103</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5301,13 +5283,13 @@
         <v>58845</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5304,13 @@
         <v>22596</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5337,13 +5319,13 @@
         <v>12380</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5352,13 +5334,13 @@
         <v>34977</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,7 +5396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5426,13 +5408,13 @@
         <v>118870</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5441,13 +5423,13 @@
         <v>68294</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -5456,13 +5438,13 @@
         <v>187163</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5459,13 @@
         <v>83470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -5492,13 +5474,13 @@
         <v>59986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5507,13 +5489,13 @@
         <v>143456</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5510,13 @@
         <v>104666</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -5546,7 +5528,7 @@
         <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>382</v>
@@ -5561,10 +5543,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5561,13 @@
         <v>64311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5594,10 +5576,10 @@
         <v>40210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>389</v>
@@ -5612,10 +5594,10 @@
         <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,7 +5612,7 @@
         <v>42724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>393</v>
@@ -5651,7 +5633,7 @@
         <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -5660,13 +5642,13 @@
         <v>85623</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5704,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5734,13 +5716,13 @@
         <v>73089</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5749,13 +5731,13 @@
         <v>47682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -5764,13 +5746,13 @@
         <v>120771</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5767,13 @@
         <v>69911</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -5800,13 +5782,13 @@
         <v>56381</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>118</v>
@@ -5815,13 +5797,13 @@
         <v>126292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5818,13 @@
         <v>128188</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>89</v>
@@ -5851,13 +5833,13 @@
         <v>91819</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -5866,13 +5848,13 @@
         <v>220007</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5869,13 @@
         <v>62810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5902,13 +5884,13 @@
         <v>44901</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -5917,13 +5899,13 @@
         <v>107711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5920,13 @@
         <v>29821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5953,13 +5935,13 @@
         <v>29776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -5968,13 +5950,13 @@
         <v>59597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6012,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6042,13 +6024,13 @@
         <v>112583</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -6057,13 +6039,13 @@
         <v>77949</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -6072,13 +6054,13 @@
         <v>190532</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>95</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6075,13 @@
         <v>71366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>246</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -6108,13 +6090,13 @@
         <v>55933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>121</v>
@@ -6123,13 +6105,13 @@
         <v>127300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6126,13 @@
         <v>105786</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -6159,13 +6141,13 @@
         <v>78915</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>454</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -6174,13 +6156,13 @@
         <v>184701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6177,13 @@
         <v>65489</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>104</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -6210,13 +6192,13 @@
         <v>66868</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -6225,13 +6207,13 @@
         <v>132357</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>471</v>
+        <v>325</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6228,13 @@
         <v>45946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -6261,13 +6243,13 @@
         <v>45809</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>306</v>
+        <v>468</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -6276,13 +6258,13 @@
         <v>91755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6332,13 @@
         <v>359219</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H34" s="7">
         <v>229</v>
@@ -6368,10 +6350,10 @@
         <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>568</v>
@@ -6380,13 +6362,13 @@
         <v>591164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6383,13 @@
         <v>271511</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>490</v>
+        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>204</v>
@@ -6416,13 +6398,13 @@
         <v>206003</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>21</v>
+        <v>483</v>
       </c>
       <c r="M35" s="7">
         <v>455</v>
@@ -6431,13 +6413,13 @@
         <v>477514</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6434,13 @@
         <v>405708</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H36" s="7">
         <v>274</v>
@@ -6467,13 +6449,13 @@
         <v>283248</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>500</v>
+        <v>88</v>
       </c>
       <c r="M36" s="7">
         <v>649</v>
@@ -6482,13 +6464,13 @@
         <v>688957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6485,13 @@
         <v>239908</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>180</v>
@@ -6518,13 +6500,13 @@
         <v>182509</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>63</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>408</v>
@@ -6533,13 +6515,13 @@
         <v>422417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6536,13 @@
         <v>145975</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>313</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="H38" s="7">
         <v>126</v>
@@ -6569,13 +6551,13 @@
         <v>133468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>116</v>
+        <v>506</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M38" s="7">
         <v>256</v>
@@ -6584,13 +6566,13 @@
         <v>279443</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,7 +6628,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6667,7 +6649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9464BF1B-145A-47F0-BE8F-AE16A004C843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53FE273-8F94-4C61-B699-C4A45DF0E7B1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6684,7 +6666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6791,13 +6773,13 @@
         <v>6725</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6806,13 +6788,13 @@
         <v>1919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6821,13 +6803,13 @@
         <v>8644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6824,13 @@
         <v>1121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6857,13 +6839,13 @@
         <v>428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6872,13 +6854,13 @@
         <v>1550</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6875,13 @@
         <v>3772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6908,13 +6890,13 @@
         <v>3023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6923,13 +6905,13 @@
         <v>6794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,10 +6929,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6959,13 +6941,13 @@
         <v>861</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>538</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6974,13 +6956,13 @@
         <v>861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6977,13 @@
         <v>3767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>551</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7010,13 +6992,13 @@
         <v>2172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -7025,13 +7007,13 @@
         <v>5939</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7081,13 @@
         <v>15514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7114,13 +7096,13 @@
         <v>18171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -7129,13 +7111,13 @@
         <v>33686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>555</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7132,13 @@
         <v>15967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7165,13 +7147,13 @@
         <v>7243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>570</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>572</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -7180,13 +7162,13 @@
         <v>23210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7183,13 @@
         <v>23404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -7216,13 +7198,13 @@
         <v>21549</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>569</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -7231,13 +7213,13 @@
         <v>44954</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7234,13 @@
         <v>5860</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7267,13 +7249,13 @@
         <v>14259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>586</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7282,13 +7264,13 @@
         <v>20120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>590</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7285,13 @@
         <v>13800</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7318,13 +7300,13 @@
         <v>4125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7333,10 +7315,10 @@
         <v>17926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>34</v>
@@ -7395,7 +7377,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7407,13 +7389,13 @@
         <v>87525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7422,13 +7404,13 @@
         <v>23081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -7437,13 +7419,13 @@
         <v>110606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>593</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>594</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7440,13 @@
         <v>39952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -7473,13 +7455,13 @@
         <v>32220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>610</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7488,13 +7470,13 @@
         <v>72172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,10 +7491,10 @@
         <v>43361</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>37</v>
@@ -7524,13 +7506,13 @@
         <v>39127</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -7539,13 +7521,13 @@
         <v>82488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>609</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7542,13 @@
         <v>31364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -7575,13 +7557,13 @@
         <v>21809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>624</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7590,13 +7572,13 @@
         <v>53172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>590</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7593,13 @@
         <v>10591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -7626,13 +7608,13 @@
         <v>12882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -7641,13 +7623,13 @@
         <v>23473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7685,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7715,13 +7697,13 @@
         <v>29659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -7730,13 +7712,13 @@
         <v>35304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -7745,13 +7727,13 @@
         <v>64963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7748,13 @@
         <v>18332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -7781,13 +7763,13 @@
         <v>10875</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -7796,13 +7778,13 @@
         <v>29206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7799,13 @@
         <v>17585</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -7832,13 +7814,13 @@
         <v>26503</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>494</v>
+        <v>648</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -7847,10 +7829,10 @@
         <v>44088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -7871,10 +7853,10 @@
         <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7883,13 +7865,13 @@
         <v>6160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7898,13 +7880,13 @@
         <v>16943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7901,13 @@
         <v>4747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -7934,13 +7916,13 @@
         <v>10654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>663</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7949,13 +7931,13 @@
         <v>15401</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,7 +7993,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8023,13 +8005,13 @@
         <v>45124</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -8038,13 +8020,13 @@
         <v>39276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -8053,13 +8035,13 @@
         <v>84399</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8056,13 @@
         <v>12643</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8089,13 +8071,13 @@
         <v>11528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -8104,13 +8086,13 @@
         <v>24171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8107,13 @@
         <v>34917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -8140,13 +8122,13 @@
         <v>30098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -8155,13 +8137,13 @@
         <v>65015</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8158,13 @@
         <v>12585</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -8191,13 +8173,13 @@
         <v>10139</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -8206,13 +8188,13 @@
         <v>22724</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8209,13 @@
         <v>7817</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>707</v>
+        <v>286</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>94</v>
+        <v>609</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8242,13 +8224,13 @@
         <v>4567</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -8257,13 +8239,13 @@
         <v>12384</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>714</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8313,13 @@
         <v>184547</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="H34" s="7">
         <v>146</v>
@@ -8346,13 +8328,13 @@
         <v>117751</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>369</v>
+        <v>709</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>134</v>
+        <v>710</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="M34" s="7">
         <v>264</v>
@@ -8361,13 +8343,13 @@
         <v>302298</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8364,13 @@
         <v>88015</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>453</v>
+        <v>121</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -8397,13 +8379,13 @@
         <v>62294</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>724</v>
+        <v>372</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -8412,13 +8394,13 @@
         <v>150308</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>83</v>
+        <v>719</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,13 +8415,13 @@
         <v>123039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="H36" s="7">
         <v>163</v>
@@ -8448,13 +8430,13 @@
         <v>120300</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>421</v>
+        <v>725</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>732</v>
+        <v>329</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="M36" s="7">
         <v>281</v>
@@ -8463,13 +8445,13 @@
         <v>243340</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8466,13 @@
         <v>60591</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>737</v>
+        <v>425</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -8499,13 +8481,13 @@
         <v>53228</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>388</v>
+        <v>733</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="M37" s="7">
         <v>127</v>
@@ -8514,13 +8496,13 @@
         <v>113819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,13 +8517,13 @@
         <v>40722</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>427</v>
+        <v>739</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -8550,13 +8532,13 @@
         <v>34401</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="M38" s="7">
         <v>72</v>
@@ -8565,13 +8547,13 @@
         <v>75123</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,7 +8609,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6705-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C814F4C1-6134-4FAB-A713-B5CA8FDA4862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E40DD0-86CE-4734-A357-A6FCD97F8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E93FA88F-F0B9-4119-AB9E-A8FAA738E9D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80D868C8-FEB2-4893-86AE-73E16F5687A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="743">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -76,2206 +76,2197 @@
     <t>24,29%</t>
   </si>
   <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AC80C5-80EB-4A7A-9978-ECF255361D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863F743-66AB-4606-B3E2-1EEC89FF331E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3305,10 +3296,10 @@
         <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3314,13 @@
         <v>26542</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3338,13 +3329,13 @@
         <v>19200</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3353,13 +3344,13 @@
         <v>45742</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,7 +3406,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3427,13 +3418,13 @@
         <v>80225</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3442,13 +3433,13 @@
         <v>64806</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -3514,7 +3505,7 @@
         <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3520,13 @@
         <v>110805</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -3544,13 +3535,13 @@
         <v>71961</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>165</v>
@@ -3559,13 +3550,13 @@
         <v>182766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3571,13 @@
         <v>87232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -3595,13 +3586,13 @@
         <v>41100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3610,13 +3601,13 @@
         <v>128332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3622,13 @@
         <v>72107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3646,13 +3637,13 @@
         <v>47606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3661,13 +3652,13 @@
         <v>119713</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3714,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3735,13 +3726,13 @@
         <v>54326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3750,13 +3741,13 @@
         <v>42497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3765,13 +3756,13 @@
         <v>96823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3777,13 @@
         <v>44679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3801,13 +3792,13 @@
         <v>27515</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3816,13 +3807,13 @@
         <v>72194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3828,13 @@
         <v>86388</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -3852,13 +3843,13 @@
         <v>52346</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -3867,13 +3858,13 @@
         <v>138734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,10 +3882,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3903,13 +3894,13 @@
         <v>39292</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3918,13 +3909,13 @@
         <v>98113</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3930,13 @@
         <v>76329</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3954,13 +3945,13 @@
         <v>52691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>116</v>
@@ -3969,13 +3960,13 @@
         <v>129019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4022,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4043,13 +4034,13 @@
         <v>74193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4058,13 +4049,13 @@
         <v>68311</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -4073,13 +4064,13 @@
         <v>142504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4085,13 @@
         <v>67457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -4109,13 +4100,13 @@
         <v>43855</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -4124,13 +4115,13 @@
         <v>111312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4136,13 @@
         <v>140636</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -4160,13 +4151,13 @@
         <v>78741</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -4175,13 +4166,13 @@
         <v>219378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4187,13 @@
         <v>79944</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -4211,13 +4202,13 @@
         <v>61189</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>135</v>
@@ -4226,13 +4217,13 @@
         <v>141133</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4238,13 @@
         <v>55527</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
@@ -4262,13 +4253,13 @@
         <v>48421</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -4277,13 +4268,13 @@
         <v>103948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4342,13 @@
         <v>276495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>192</v>
@@ -4366,13 +4357,13 @@
         <v>209936</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>451</v>
@@ -4381,13 +4372,13 @@
         <v>486430</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4393,13 @@
         <v>216585</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>147</v>
@@ -4417,13 +4408,13 @@
         <v>155185</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>355</v>
@@ -4432,13 +4423,13 @@
         <v>371769</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4444,13 @@
         <v>409949</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H36" s="7">
         <v>224</v>
@@ -4486,10 +4477,10 @@
         <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4495,13 @@
         <v>276768</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>154</v>
@@ -4519,13 +4510,13 @@
         <v>169742</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>410</v>
@@ -4534,13 +4525,13 @@
         <v>446510</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,10 +4549,10 @@
         <v>71</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>157</v>
@@ -4570,13 +4561,13 @@
         <v>170135</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>377</v>
@@ -4585,13 +4576,13 @@
         <v>403315</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4638,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DED8C-85BB-4E14-99B1-1F800713C44D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF65EC8-271F-4290-B9B0-A600FC102465}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4792,13 +4783,13 @@
         <v>9213</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4807,13 +4798,13 @@
         <v>6559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4822,13 +4813,13 @@
         <v>15773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4834,13 @@
         <v>6181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4858,13 +4849,13 @@
         <v>3378</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4873,13 +4864,13 @@
         <v>9559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,10 +4939,10 @@
         <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4960,13 +4951,13 @@
         <v>8428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4975,13 +4966,13 @@
         <v>18982</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4987,13 @@
         <v>4888</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5011,13 +5002,13 @@
         <v>2604</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5026,13 +5017,13 @@
         <v>7492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5091,13 @@
         <v>45464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5115,13 +5106,13 @@
         <v>31460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5130,13 +5121,13 @@
         <v>76925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5142,13 @@
         <v>40583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -5166,13 +5157,13 @@
         <v>30325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5181,13 +5172,13 @@
         <v>70907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5193,13 @@
         <v>53883</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -5217,13 +5208,13 @@
         <v>41209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -5232,10 +5223,10 @@
         <v>95093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>344</v>
@@ -5271,10 +5262,10 @@
         <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5283,13 +5274,13 @@
         <v>58845</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5295,13 @@
         <v>22596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5319,13 +5310,13 @@
         <v>12380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -5334,13 +5325,13 @@
         <v>34977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5408,13 +5399,13 @@
         <v>118870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5423,13 +5414,13 @@
         <v>68294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -5438,13 +5429,13 @@
         <v>187163</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5450,13 @@
         <v>83470</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -5474,13 +5465,13 @@
         <v>59986</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5489,13 +5480,13 @@
         <v>143456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5501,13 @@
         <v>104666</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -5525,13 +5516,13 @@
         <v>62383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -5543,10 +5534,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5552,13 @@
         <v>64311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5576,13 +5567,13 @@
         <v>40210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -5591,13 +5582,13 @@
         <v>104521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5603,13 @@
         <v>42724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5627,13 +5618,13 @@
         <v>42899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -5642,13 +5633,13 @@
         <v>85623</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,7 +5695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5716,13 +5707,13 @@
         <v>73089</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5731,13 +5722,13 @@
         <v>47682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -5746,10 +5737,10 @@
         <v>120771</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>404</v>
@@ -5770,10 +5761,10 @@
         <v>405</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -5782,13 +5773,13 @@
         <v>56381</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>118</v>
@@ -5800,10 +5791,10 @@
         <v>89</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5809,13 @@
         <v>128188</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>89</v>
@@ -5833,13 +5824,13 @@
         <v>91819</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -5848,13 +5839,13 @@
         <v>220007</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>420</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5860,13 @@
         <v>62810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5884,13 +5875,13 @@
         <v>44901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -5899,13 +5890,13 @@
         <v>107711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5911,13 @@
         <v>29821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5935,13 +5926,13 @@
         <v>29776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -5950,13 +5941,13 @@
         <v>59597</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,7 +6003,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6024,13 +6015,13 @@
         <v>112583</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -6039,13 +6030,13 @@
         <v>77949</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -6054,13 +6045,13 @@
         <v>190532</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,10 +6066,10 @@
         <v>71366</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>446</v>
@@ -6108,10 +6099,10 @@
         <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>371</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6117,13 @@
         <v>105786</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -6141,13 +6132,13 @@
         <v>78915</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -6156,13 +6147,13 @@
         <v>184701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6168,13 @@
         <v>65489</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>104</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -6192,13 +6183,13 @@
         <v>66868</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -6207,13 +6198,13 @@
         <v>132357</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6219,13 @@
         <v>45946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -6243,13 +6234,13 @@
         <v>45809</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -6258,13 +6249,13 @@
         <v>91755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>385</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6323,13 @@
         <v>359219</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>473</v>
+        <v>341</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>229</v>
@@ -6347,13 +6338,13 @@
         <v>231944</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M34" s="7">
         <v>568</v>
@@ -6362,13 +6353,13 @@
         <v>591164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6374,13 @@
         <v>271511</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>133</v>
+        <v>487</v>
       </c>
       <c r="H35" s="7">
         <v>204</v>
@@ -6398,13 +6389,13 @@
         <v>206003</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="M35" s="7">
         <v>455</v>
@@ -6413,13 +6404,13 @@
         <v>477514</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6425,13 @@
         <v>405708</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H36" s="7">
         <v>274</v>
@@ -6449,13 +6440,13 @@
         <v>283248</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>649</v>
@@ -6464,13 +6455,13 @@
         <v>688957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>488</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>493</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6476,13 @@
         <v>239908</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H37" s="7">
         <v>180</v>
@@ -6500,13 +6491,13 @@
         <v>182509</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="M37" s="7">
         <v>408</v>
@@ -6515,13 +6506,13 @@
         <v>422417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>502</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6527,13 @@
         <v>145975</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>126</v>
@@ -6551,13 +6542,13 @@
         <v>133468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M38" s="7">
         <v>256</v>
@@ -6566,13 +6557,13 @@
         <v>279443</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,7 +6619,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6649,7 +6640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53FE273-8F94-4C61-B699-C4A45DF0E7B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E38C37D-46EC-43E0-9060-D3DA94CD301C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6666,7 +6657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6773,13 +6764,13 @@
         <v>6725</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6788,13 +6779,13 @@
         <v>1919</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6803,13 +6794,13 @@
         <v>8644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6815,13 @@
         <v>1121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>519</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6839,13 +6830,13 @@
         <v>428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6854,13 +6845,13 @@
         <v>1550</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6866,13 @@
         <v>3772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6890,13 +6881,13 @@
         <v>3023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6905,13 +6896,13 @@
         <v>6794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,10 +6920,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6941,13 +6932,13 @@
         <v>861</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6956,13 +6947,13 @@
         <v>861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +6968,13 @@
         <v>3767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>546</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6992,13 +6983,13 @@
         <v>2172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>549</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -7007,13 +6998,13 @@
         <v>5939</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7072,13 @@
         <v>15514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7096,13 +7087,13 @@
         <v>18171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>553</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -7111,13 +7102,13 @@
         <v>33686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>555</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7123,13 @@
         <v>15967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7147,13 +7138,13 @@
         <v>7243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>564</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>566</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -7162,13 +7153,13 @@
         <v>23210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>563</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7174,13 @@
         <v>23404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -7198,13 +7189,13 @@
         <v>21549</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>568</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -7213,13 +7204,13 @@
         <v>44954</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>572</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7225,13 @@
         <v>5860</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7249,13 +7240,13 @@
         <v>14259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>446</v>
+        <v>578</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>576</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>579</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7264,13 +7255,13 @@
         <v>20120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7276,13 @@
         <v>13800</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7300,13 +7291,13 @@
         <v>4125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7315,13 +7306,13 @@
         <v>17926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7368,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7389,13 +7380,13 @@
         <v>87525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7404,13 +7395,13 @@
         <v>23081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -7419,13 +7410,13 @@
         <v>110606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7431,13 @@
         <v>39952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -7455,13 +7446,13 @@
         <v>32220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7470,13 +7461,13 @@
         <v>72172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>601</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7482,13 @@
         <v>43361</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>606</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -7506,13 +7497,13 @@
         <v>39127</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>605</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -7521,10 +7512,10 @@
         <v>82488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>609</v>
+        <v>356</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>610</v>
@@ -7542,13 +7533,13 @@
         <v>31364</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -7557,13 +7548,13 @@
         <v>21809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7572,13 +7563,13 @@
         <v>53172</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,7 +7676,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7700,10 +7691,10 @@
         <v>627</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>525</v>
+        <v>628</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -7712,13 +7703,13 @@
         <v>35304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -7727,13 +7718,13 @@
         <v>64963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,10 +7739,10 @@
         <v>18332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>636</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>637</v>
@@ -7769,7 +7760,7 @@
         <v>639</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>640</v>
+        <v>570</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -7778,13 +7769,13 @@
         <v>29206</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7790,13 @@
         <v>17585</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -7814,13 +7805,13 @@
         <v>26503</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>647</v>
+        <v>112</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -7829,13 +7820,13 @@
         <v>44088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>650</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>31</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7841,13 @@
         <v>10783</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7865,13 +7856,13 @@
         <v>6160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7880,13 +7871,13 @@
         <v>16943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7892,13 @@
         <v>4747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -7916,13 +7907,13 @@
         <v>10654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>233</v>
+        <v>661</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7931,13 +7922,13 @@
         <v>15401</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,7 +7984,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8005,13 +7996,13 @@
         <v>45124</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -8020,13 +8011,13 @@
         <v>39276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>671</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -8035,13 +8026,13 @@
         <v>84399</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8047,13 @@
         <v>12643</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>679</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8071,13 +8062,13 @@
         <v>11528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>559</v>
+        <v>675</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -8086,13 +8077,13 @@
         <v>24171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8098,13 @@
         <v>34917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -8122,13 +8113,13 @@
         <v>30098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -8137,13 +8128,13 @@
         <v>65015</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8149,13 @@
         <v>12585</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -8173,13 +8164,13 @@
         <v>10139</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -8188,13 +8179,13 @@
         <v>22724</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>518</v>
+        <v>695</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>699</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8200,13 @@
         <v>7817</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>286</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>609</v>
+        <v>698</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8224,13 +8215,13 @@
         <v>4567</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -8239,13 +8230,13 @@
         <v>12384</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8304,13 @@
         <v>184547</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="H34" s="7">
         <v>146</v>
@@ -8328,13 +8319,13 @@
         <v>117751</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="M34" s="7">
         <v>264</v>
@@ -8343,13 +8334,13 @@
         <v>302298</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8355,13 @@
         <v>88015</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>716</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -8379,7 +8370,7 @@
         <v>62294</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>372</v>
+        <v>716</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>717</v>
@@ -8418,10 +8409,10 @@
         <v>722</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="H36" s="7">
         <v>163</v>
@@ -8430,10 +8421,10 @@
         <v>120300</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>726</v>
@@ -8445,13 +8436,13 @@
         <v>243340</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>727</v>
+        <v>291</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>728</v>
+        <v>479</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>729</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8457,13 @@
         <v>60591</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>425</v>
+        <v>727</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -8481,13 +8472,13 @@
         <v>53228</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="M37" s="7">
         <v>127</v>
@@ -8496,13 +8487,13 @@
         <v>113819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>316</v>
+        <v>701</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>736</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8508,13 @@
         <v>40722</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -8532,13 +8523,13 @@
         <v>34401</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="M38" s="7">
         <v>72</v>
@@ -8547,13 +8538,13 @@
         <v>75123</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,7 +8600,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
